--- a/src/systemParameterIdentification/dataLogging.xlsx
+++ b/src/systemParameterIdentification/dataLogging.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\researchProject\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="Log" sheetId="1" r:id="rId1"/>
+    <sheet name="dataLoggingTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +28,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -40,18 +345,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -66,39 +568,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +632,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -175,178 +679,152 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/systemParameterIdentification/dataLogging.xlsx
+++ b/src/systemParameterIdentification/dataLogging.xlsx
@@ -8,6 +8,12 @@
   <s:sheets>
     <s:sheet name="Log" sheetId="1" r:id="rId1"/>
     <s:sheet name="Log2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Log3" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Log4" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Log5" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Log6" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Log7" sheetId="7" r:id="rId7"/>
+    <s:sheet name="Log8" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -45,6 +51,24 @@
   </si>
   <si>
     <t>Wed Feb 17 11:09:38 2016</t>
+  </si>
+  <si>
+    <t>Fri Mar 11 14:43:50 2016</t>
+  </si>
+  <si>
+    <t>Fri Mar 11 14:47:48 2016</t>
+  </si>
+  <si>
+    <t>Fri Mar 11 14:49:46 2016</t>
+  </si>
+  <si>
+    <t>Fri Mar 11 14:54:15 2016</t>
+  </si>
+  <si>
+    <t>Fri Mar 11 14:56:50 2016</t>
+  </si>
+  <si>
+    <t>Fri Mar 11 15:03:02 2016</t>
   </si>
 </sst>
 </file>
@@ -1954,4 +1978,350 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
+        <v>0.00279688835144043</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.59862415819895</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.115645114195985</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.126258576877942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
+        <v>30.01214289665222</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26.08649637264883</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.156393015972623</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.00526054479281679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/src/systemParameterIdentification/dataLogging.xlsx
+++ b/src/systemParameterIdentification/dataLogging.xlsx
@@ -12,6 +12,8 @@
     <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log3" sheetId="3" r:id="rId3"/>
     <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log4" sheetId="4" r:id="rId4"/>
     <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log5" sheetId="5" r:id="rId5"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log6" sheetId="6" r:id="rId6"/>
+    <s:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log7" sheetId="7" r:id="rId7"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -58,6 +60,12 @@
   </si>
   <si>
     <t>Tue Mar 15 23:11:08 2016</t>
+  </si>
+  <si>
+    <t>Wed Mar 16 15:42:23 2016</t>
+  </si>
+  <si>
+    <t>Wed Mar 16 15:49:59 2016</t>
   </si>
 </sst>
 </file>
@@ -10450,6 +10458,741 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" width="9.1" customWidth="1" max="1"/>
+    <col min="2" width="9.1" customWidth="1" max="2"/>
+    <col min="3" width="9.1" customWidth="1" max="3"/>
+    <col min="4" width="9.1" customWidth="1" max="4"/>
+    <col min="5" width="9.1" customWidth="1" max="5"/>
+    <col min="6" width="9.1" customWidth="1" max="6"/>
+    <col min="7" width="9.1" customWidth="1" max="7"/>
+  </cols>
+  <sheetData>
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
+        <v>3</v>
+      </c>
+      <c t="s" r="B1">
+        <v>12</v>
+      </c>
+    </row>
+    <row spans="1:7" r="3">
+      <c t="s" r="A3">
+        <v>4</v>
+      </c>
+      <c t="s" r="B3">
+        <v>6</v>
+      </c>
+      <c t="s" r="C3">
+        <v>0</v>
+      </c>
+      <c t="s" r="D3">
+        <v>7</v>
+      </c>
+      <c t="s" r="E3">
+        <v>5</v>
+      </c>
+      <c t="s" r="F3">
+        <v>1</v>
+      </c>
+      <c t="s" r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row spans="1:7" r="4">
+      <c t="n" r="A4">
+        <v>0.0009999275207519531</v>
+      </c>
+      <c t="n" r="B4">
+        <v>35.93319928362619</v>
+      </c>
+      <c t="n" r="C4">
+        <v>0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E4">
+        <v>40</v>
+      </c>
+      <c t="n" r="F4">
+        <v>0.8726883592757834</v>
+      </c>
+      <c t="n" r="G4">
+        <v>0.14046549089770402</v>
+      </c>
+    </row>
+    <row spans="1:7" r="5">
+      <c t="n" r="A5">
+        <v>40.00099992752075</v>
+      </c>
+      <c t="n" r="B5">
+        <v>39.033975167287515</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>100</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0.7163546569173938</v>
+      </c>
+      <c t="n" r="G5">
+        <v>0.3339207038481812</v>
+      </c>
+    </row>
+    <row spans="1:7" r="6">
+      <c t="n" r="A6">
+        <v>80.0019998550415</v>
+      </c>
+      <c t="n" r="B6">
+        <v>31.03483491698797</v>
+      </c>
+      <c t="n" r="C6">
+        <v>0</v>
+      </c>
+      <c t="n" r="D6">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E6">
+        <v>0</v>
+      </c>
+      <c t="n" r="F6">
+        <v>1.451773241600581</v>
+      </c>
+      <c t="n" r="G6">
+        <v>-0.25601925712454654</v>
+      </c>
+    </row>
+    <row spans="1:7" r="7">
+      <c t="n" r="A7">
+        <v>120.00099992752075</v>
+      </c>
+      <c t="n" r="B7">
+        <v>22.977419850428806</v>
+      </c>
+      <c t="n" r="C7">
+        <v>0</v>
+      </c>
+      <c t="n" r="D7">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E7">
+        <v>0</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0.741891634918841</v>
+      </c>
+      <c t="n" r="G7">
+        <v>0.6298063657286977</v>
+      </c>
+    </row>
+    <row spans="1:7" r="8">
+      <c t="n" r="A8">
+        <v>160.0</v>
+      </c>
+      <c t="n" r="B8">
+        <v>27.706051296647992</v>
+      </c>
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E8">
+        <v>100</v>
+      </c>
+      <c t="n" r="F8">
+        <v>1.2043497720614438</v>
+      </c>
+      <c t="n" r="G8">
+        <v>0.25884948477102326</v>
+      </c>
+    </row>
+    <row spans="1:7" r="9">
+      <c t="n" r="A9">
+        <v>199.99899983406067</v>
+      </c>
+      <c t="n" r="B9">
+        <v>30.73692414571351</v>
+      </c>
+      <c t="n" r="C9">
+        <v>0</v>
+      </c>
+      <c t="n" r="D9">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E9">
+        <v>100</v>
+      </c>
+      <c t="n" r="F9">
+        <v>1.4992702757300553</v>
+      </c>
+      <c t="n" r="G9">
+        <v>-0.1078971777120829</v>
+      </c>
+    </row>
+    <row spans="1:7" r="10">
+      <c t="n" r="A10">
+        <v>239.99899983406067</v>
+      </c>
+      <c t="n" r="B10">
+        <v>22.946814329570003</v>
+      </c>
+      <c t="n" r="C10">
+        <v>0</v>
+      </c>
+      <c t="n" r="D10">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E10">
+        <v>0</v>
+      </c>
+      <c t="n" r="F10">
+        <v>1.747515042021345</v>
+      </c>
+      <c t="n" r="G10">
+        <v>-0.3075761376625977</v>
+      </c>
+    </row>
+    <row spans="1:7" r="11">
+      <c t="n" r="A11">
+        <v>279.9979999065399</v>
+      </c>
+      <c t="n" r="B11">
+        <v>26.8511666315705</v>
+      </c>
+      <c t="n" r="C11">
+        <v>0</v>
+      </c>
+      <c t="n" r="D11">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E11">
+        <v>100</v>
+      </c>
+      <c t="n" r="F11">
+        <v>1.172391728625611</v>
+      </c>
+      <c t="n" r="G11">
+        <v>0.40805590313024753</v>
+      </c>
+    </row>
+    <row spans="1:7" r="12">
+      <c t="n" r="A12">
+        <v>319.99899983406067</v>
+      </c>
+      <c t="n" r="B12">
+        <v>19.21372652447492</v>
+      </c>
+      <c t="n" r="C12">
+        <v>0</v>
+      </c>
+      <c t="n" r="D12">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E12">
+        <v>0</v>
+      </c>
+      <c t="n" r="F12">
+        <v>2.159355880249014</v>
+      </c>
+      <c t="n" r="G12">
+        <v>-0.387351456146498</v>
+      </c>
+    </row>
+    <row spans="1:7" r="13">
+      <c t="n" r="A13">
+        <v>359.99899983406067</v>
+      </c>
+      <c t="n" r="B13">
+        <v>24.686907023340694</v>
+      </c>
+      <c t="n" r="C13">
+        <v>0</v>
+      </c>
+      <c t="n" r="D13">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E13">
+        <v>100</v>
+      </c>
+      <c t="n" r="F13">
+        <v>1.2896920391939184</v>
+      </c>
+      <c t="n" r="G13">
+        <v>0.6926412478166487</v>
+      </c>
+    </row>
+    <row spans="1:7" r="14">
+      <c t="n" r="A14">
+        <v>399.9979999065399</v>
+      </c>
+      <c t="n" r="B14">
+        <v>16.98029368105073</v>
+      </c>
+      <c t="n" r="C14">
+        <v>0</v>
+      </c>
+      <c t="n" r="D14">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E14">
+        <v>0</v>
+      </c>
+      <c t="n" r="F14">
+        <v>2.787932051650233</v>
+      </c>
+      <c t="n" r="G14">
+        <v>-0.517979795871555</v>
+      </c>
+    </row>
+    <row spans="1:7" r="15">
+      <c t="n" r="A15">
+        <v>439.9979999065399</v>
+      </c>
+      <c t="n" r="B15">
+        <v>11.026008525667306</v>
+      </c>
+      <c t="n" r="C15">
+        <v>0</v>
+      </c>
+      <c t="n" r="D15">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E15">
+        <v>0</v>
+      </c>
+      <c t="n" r="F15">
+        <v>0.6644325322934646</v>
+      </c>
+      <c t="n" r="G15">
+        <v>2.112097229549415</v>
+      </c>
+    </row>
+    <row spans="1:7" r="16">
+      <c t="n" r="A16">
+        <v>479.9979999065399</v>
+      </c>
+      <c t="n" r="B16">
+        <v>6.231911006630713</v>
+      </c>
+      <c t="n" r="C16">
+        <v>0</v>
+      </c>
+      <c t="n" r="D16">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E16">
+        <v>0</v>
+      </c>
+      <c t="n" r="F16">
+        <v>0.5665350337116167</v>
+      </c>
+      <c t="n" r="G16">
+        <v>2.191379567104027</v>
+      </c>
+    </row>
+    <row spans="1:7" r="17">
+      <c t="n" r="A17">
+        <v>519.9979999065399</v>
+      </c>
+      <c t="n" r="B17">
+        <v>13.35249149398372</v>
+      </c>
+      <c t="n" r="C17">
+        <v>0</v>
+      </c>
+      <c t="n" r="D17">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E17">
+        <v>100</v>
+      </c>
+      <c t="n" r="F17">
+        <v>2.0639738616114385</v>
+      </c>
+      <c t="n" r="G17">
+        <v>0.3528783318954183</v>
+      </c>
+    </row>
+    <row spans="1:7" r="18">
+      <c t="n" r="A18">
+        <v>559.9979999065399</v>
+      </c>
+      <c t="n" r="B18">
+        <v>19.057098349076064</v>
+      </c>
+      <c t="n" r="C18">
+        <v>0</v>
+      </c>
+      <c t="n" r="D18">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E18">
+        <v>100</v>
+      </c>
+      <c t="n" r="F18">
+        <v>2.6906336488950298</v>
+      </c>
+      <c t="n" r="G18">
+        <v>-0.16853125826269044</v>
+      </c>
+    </row>
+    <row spans="1:7" r="19">
+      <c t="n" r="A19">
+        <v>599.9969999790192</v>
+      </c>
+      <c t="n" r="B19">
+        <v>13.443004177115851</v>
+      </c>
+      <c t="n" r="C19">
+        <v>0</v>
+      </c>
+      <c t="n" r="D19">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E19">
+        <v>0</v>
+      </c>
+      <c t="n" r="F19">
+        <v>2.898068558396268</v>
+      </c>
+      <c t="n" r="G19">
+        <v>-0.41778593517381774</v>
+      </c>
+    </row>
+    <row spans="1:7" r="20">
+      <c t="n" r="A20">
+        <v>639.9979999065399</v>
+      </c>
+      <c t="n" r="B20">
+        <v>8.147693472612058</v>
+      </c>
+      <c t="n" r="C20">
+        <v>0</v>
+      </c>
+      <c t="n" r="D20">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E20">
+        <v>0</v>
+      </c>
+      <c t="n" r="F20">
+        <v>0.627160620447222</v>
+      </c>
+      <c t="n" r="G20">
+        <v>1.4708368390401685</v>
+      </c>
+    </row>
+    <row spans="1:7" r="21">
+      <c t="n" r="A21">
+        <v>679.9979999065399</v>
+      </c>
+      <c t="n" r="B21">
+        <v>4.029421178810437</v>
+      </c>
+      <c t="n" r="C21">
+        <v>0</v>
+      </c>
+      <c t="n" r="D21">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E21">
+        <v>0</v>
+      </c>
+      <c t="n" r="F21">
+        <v>0.4984489590586714</v>
+      </c>
+      <c t="n" r="G21">
+        <v>1.625075160969069</v>
+      </c>
+    </row>
+    <row spans="1:7" r="22">
+      <c t="n" r="A22">
+        <v>719.9979999065399</v>
+      </c>
+      <c t="n" r="B22">
+        <v>1.1388019894559074</v>
+      </c>
+      <c t="n" r="C22">
+        <v>0</v>
+      </c>
+      <c t="n" r="D22">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E22">
+        <v>0</v>
+      </c>
+      <c t="n" r="F22">
+        <v>0.3029409353122563</v>
+      </c>
+      <c t="n" r="G22">
+        <v>1.7899812102016348</v>
+      </c>
+    </row>
+    <row spans="1:7" r="23">
+      <c t="n" r="A23">
+        <v>759.9969999790192</v>
+      </c>
+      <c t="n" r="B23">
+        <v>10.271096523958475</v>
+      </c>
+      <c t="n" r="C23">
+        <v>0</v>
+      </c>
+      <c t="n" r="D23">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E23">
+        <v>100</v>
+      </c>
+      <c t="n" r="F23">
+        <v>3.767095738777922</v>
+      </c>
+      <c t="n" r="G23">
+        <v>-2.1870212125393547</v>
+      </c>
+    </row>
+    <row spans="1:7" r="24">
+      <c t="n" r="A24">
+        <v>799.9979999065399</v>
+      </c>
+      <c t="n" r="B24">
+        <v>5.610730090849676</v>
+      </c>
+      <c t="n" r="C24">
+        <v>0</v>
+      </c>
+      <c t="n" r="D24">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E24">
+        <v>0</v>
+      </c>
+      <c t="n" r="F24">
+        <v>1.7628509569017332</v>
+      </c>
+      <c t="n" r="G24">
+        <v>-0.12551221072150787</v>
+      </c>
+    </row>
+    <row spans="1:7" r="25">
+      <c t="n" r="A25">
+        <v>839.9979999065399</v>
+      </c>
+      <c t="n" r="B25">
+        <v>2.1973201275748835</v>
+      </c>
+      <c t="n" r="C25">
+        <v>0</v>
+      </c>
+      <c t="n" r="D25">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="E25">
+        <v>0</v>
+      </c>
+      <c t="n" r="F25">
+        <v>0.46599514819084353</v>
+      </c>
+      <c t="n" r="G25">
+        <v>1.1352072927234342</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" width="9.1" customWidth="1" max="1"/>
+    <col min="2" width="9.1" customWidth="1" max="2"/>
+    <col min="3" width="9.1" customWidth="1" max="3"/>
+    <col min="4" width="9.1" customWidth="1" max="4"/>
+    <col min="5" width="9.1" customWidth="1" max="5"/>
+    <col min="6" width="9.1" customWidth="1" max="6"/>
+    <col min="7" width="9.1" customWidth="1" max="7"/>
+  </cols>
+  <sheetData>
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
+        <v>3</v>
+      </c>
+      <c t="s" r="B1">
+        <v>13</v>
+      </c>
+    </row>
+    <row spans="1:7" r="3">
+      <c t="s" r="A3">
+        <v>4</v>
+      </c>
+      <c t="s" r="B3">
+        <v>6</v>
+      </c>
+      <c t="s" r="C3">
+        <v>0</v>
+      </c>
+      <c t="s" r="D3">
+        <v>7</v>
+      </c>
+      <c t="s" r="E3">
+        <v>5</v>
+      </c>
+      <c t="s" r="F3">
+        <v>1</v>
+      </c>
+      <c t="s" r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row spans="1:7" r="4">
+      <c t="n" r="A4">
+        <v>1.1540000438690186</v>
+      </c>
+      <c t="n" r="B4">
+        <v>568</v>
+      </c>
+      <c t="n" r="C4">
+        <v>0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>550</v>
+      </c>
+      <c t="n" r="E4">
+        <v>400</v>
+      </c>
+      <c t="n" r="F4">
+        <v>1.835051544726403</v>
+      </c>
+      <c t="n" r="G4">
+        <v>-1.2344587604779673</v>
+      </c>
+    </row>
+    <row spans="1:7" r="5">
+      <c t="n" r="A5">
+        <v>41.15299987792969</v>
+      </c>
+      <c t="n" r="B5">
+        <v>585</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>550</v>
+      </c>
+      <c t="n" r="E5">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F5">
+        <v>1.9626355897878909</v>
+      </c>
+      <c t="n" r="G5">
+        <v>-1.3243942391810428</v>
+      </c>
+    </row>
+    <row spans="1:7" r="6">
+      <c t="n" r="A6">
+        <v>81.16700005531311</v>
+      </c>
+      <c t="n" r="B6">
+        <v>374</v>
+      </c>
+      <c t="n" r="C6">
+        <v>0</v>
+      </c>
+      <c t="n" r="D6">
+        <v>550</v>
+      </c>
+      <c t="n" r="E6">
+        <v>20</v>
+      </c>
+      <c t="n" r="F6">
+        <v>1.3028082406003572</v>
+      </c>
+      <c t="n" r="G6">
+        <v>-0.3881461001197237</v>
+      </c>
+    </row>
+    <row spans="1:7" r="7">
+      <c t="n" r="A7">
+        <v>121.18099999427795</v>
+      </c>
+      <c t="n" r="B7">
+        <v>363</v>
+      </c>
+      <c t="n" r="C7">
+        <v>0</v>
+      </c>
+      <c t="n" r="D7">
+        <v>550</v>
+      </c>
+      <c t="n" r="E7">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0.9791546236015368</v>
+      </c>
+      <c t="n" r="G7">
+        <v>-0.1600456713471313</v>
+      </c>
+    </row>
+    <row spans="1:7" r="8">
+      <c t="n" r="A8">
+        <v>161.1949999332428</v>
+      </c>
+      <c t="n" r="B8">
+        <v>401</v>
+      </c>
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>550</v>
+      </c>
+      <c t="n" r="E8">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F8">
+        <v>0.7844271095341199</v>
+      </c>
+      <c t="n" r="G8">
+        <v>0.11625218531182316</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
     <col min="1" width="9.10" max="1"/>
     <col min="2" width="9.10" max="2"/>
     <col min="3" width="9.10" max="3"/>
@@ -10464,7 +11207,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row spans="1:7" r="3">
@@ -10492,508 +11235,738 @@
     </row>
     <row spans="1:7" r="4">
       <c t="n" r="A4">
-        <v>0.0009999275207519531</v>
+        <v>1.1389999389648438</v>
       </c>
       <c t="n" r="B4">
-        <v>35.933199283626188</v>
+        <v>589</v>
       </c>
       <c t="n" r="C4">
         <v>0</v>
       </c>
       <c t="n" r="D4">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E4">
-        <v>40</v>
+        <v>678</v>
       </c>
       <c t="n" r="F4">
-        <v>0.87268835927578337</v>
+        <v>0.68686068511482601</v>
       </c>
       <c t="n" r="G4">
-        <v>0.14046549089770402</v>
+        <v>0.32597690486900044</v>
       </c>
     </row>
     <row spans="1:7" r="5">
       <c t="n" r="A5">
-        <v>40.00099992752075</v>
+        <v>41.15300011634827</v>
       </c>
       <c t="n" r="B5">
-        <v>39.033975167287515</v>
+        <v>599</v>
       </c>
       <c t="n" r="C5">
         <v>0</v>
       </c>
       <c t="n" r="D5">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F5">
-        <v>0.71635465691739375</v>
+        <v>0.69722272079296277</v>
       </c>
       <c t="n" r="G5">
-        <v>0.33392070384818118</v>
+        <v>0.27715733382544061</v>
       </c>
     </row>
     <row spans="1:7" r="6">
       <c t="n" r="A6">
-        <v>80.0019998550415</v>
+        <v>81.15300011634827</v>
       </c>
       <c t="n" r="B6">
-        <v>31.034834916987968</v>
+        <v>626</v>
       </c>
       <c t="n" r="C6">
         <v>0</v>
       </c>
       <c t="n" r="D6">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F6">
-        <v>1.4517732416005811</v>
+        <v>0.53174175655778566</v>
       </c>
       <c t="n" r="G6">
-        <v>-0.25601925712454654</v>
+        <v>0.30909495720171243</v>
       </c>
     </row>
     <row spans="1:7" r="7">
       <c t="n" r="A7">
-        <v>120.00099992752075</v>
+        <v>121.15199995040894</v>
       </c>
       <c t="n" r="B7">
-        <v>22.977419850428806</v>
+        <v>634</v>
       </c>
       <c t="n" r="C7">
         <v>0</v>
       </c>
       <c t="n" r="D7">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F7">
-        <v>0.74189163491884103</v>
+        <v>0.53375929801816602</v>
       </c>
       <c t="n" r="G7">
-        <v>0.62980636572869775</v>
+        <v>0.29978024879043058</v>
       </c>
     </row>
     <row spans="1:7" r="8">
       <c t="n" r="A8">
-        <v>160.0</v>
+        <v>161.15100002288818</v>
       </c>
       <c t="n" r="B8">
-        <v>27.706051296647992</v>
+        <v>569</v>
       </c>
       <c t="n" r="C8">
         <v>0</v>
       </c>
       <c t="n" r="D8">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c t="n" r="F8">
-        <v>1.2043497720614438</v>
+        <v>0.37526607035754761</v>
       </c>
       <c t="n" r="G8">
-        <v>0.25884948477102326</v>
+        <v>0.33251273482580879</v>
       </c>
     </row>
     <row spans="1:7" r="9">
       <c t="n" r="A9">
-        <v>199.99899983406067</v>
+        <v>201.16499996185303</v>
       </c>
       <c t="n" r="B9">
-        <v>30.736924145713509</v>
+        <v>505</v>
       </c>
       <c t="n" r="C9">
         <v>0</v>
       </c>
       <c t="n" r="D9">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c t="n" r="F9">
-        <v>1.4992702757300553</v>
+        <v>0.093699229929797512</v>
       </c>
       <c t="n" r="G9">
-        <v>-0.1078971777120829</v>
+        <v>1.5370924451067367</v>
       </c>
     </row>
     <row spans="1:7" r="10">
       <c t="n" r="A10">
-        <v>239.99899983406067</v>
+        <v>241.17899990081787</v>
       </c>
       <c t="n" r="B10">
-        <v>22.946814329570003</v>
+        <v>513</v>
       </c>
       <c t="n" r="C10">
         <v>0</v>
       </c>
       <c t="n" r="D10">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F10">
-        <v>1.747515042021345</v>
+        <v>0.10366274695932234</v>
       </c>
       <c t="n" r="G10">
-        <v>-0.30757613766259773</v>
+        <v>1.5352141080693247</v>
       </c>
     </row>
     <row spans="1:7" r="11">
       <c t="n" r="A11">
-        <v>279.9979999065399</v>
+        <v>281.1930000782013</v>
       </c>
       <c t="n" r="B11">
-        <v>26.8511666315705</v>
+        <v>535</v>
       </c>
       <c t="n" r="C11">
         <v>0</v>
       </c>
       <c t="n" r="D11">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F11">
-        <v>1.1723917286256109</v>
+        <v>0.3370930105484774</v>
       </c>
       <c t="n" r="G11">
-        <v>0.40805590313024753</v>
+        <v>0.34728376900790714</v>
       </c>
     </row>
     <row spans="1:7" r="12">
       <c t="n" r="A12">
-        <v>319.99899983406067</v>
+        <v>321.20700001716614</v>
       </c>
       <c t="n" r="B12">
-        <v>19.213726524474922</v>
+        <v>477</v>
       </c>
       <c t="n" r="C12">
         <v>0</v>
       </c>
       <c t="n" r="D12">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c t="n" r="F12">
-        <v>2.1593558802490138</v>
+        <v>0.19741544398127248</v>
       </c>
       <c t="n" r="G12">
-        <v>-0.38735145614649802</v>
+        <v>0.37298945925106458</v>
       </c>
     </row>
     <row spans="1:7" r="13">
       <c t="n" r="A13">
-        <v>359.99899983406067</v>
+        <v>361.20700001716614</v>
       </c>
       <c t="n" r="B13">
-        <v>24.686907023340694</v>
+        <v>406</v>
       </c>
       <c t="n" r="C13">
         <v>0</v>
       </c>
       <c t="n" r="D13">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E13">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c t="n" r="F13">
-        <v>1.2896920391939184</v>
+        <v>-0.048012492249622035</v>
       </c>
       <c t="n" r="G13">
-        <v>0.69264124781664871</v>
+        <v>1.4642405367004683</v>
       </c>
     </row>
     <row spans="1:7" r="14">
       <c t="n" r="A14">
-        <v>399.9979999065399</v>
+        <v>401.2079999446869</v>
       </c>
       <c t="n" r="B14">
-        <v>16.980293681050728</v>
+        <v>429</v>
       </c>
       <c t="n" r="C14">
         <v>0</v>
       </c>
       <c t="n" r="D14">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F14">
-        <v>2.7879320516502331</v>
+        <v>-0.022675251159384922</v>
       </c>
       <c t="n" r="G14">
-        <v>-0.51797979587155496</v>
+        <v>1.4597573918351239</v>
       </c>
     </row>
     <row spans="1:7" r="15">
       <c t="n" r="A15">
-        <v>439.9979999065399</v>
+        <v>441.20700001716614</v>
       </c>
       <c t="n" r="B15">
-        <v>11.026008525667306</v>
+        <v>444</v>
       </c>
       <c t="n" r="C15">
         <v>0</v>
       </c>
       <c t="n" r="D15">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F15">
-        <v>0.66443253229346455</v>
+        <v>0.19226769739330471</v>
       </c>
       <c t="n" r="G15">
-        <v>2.1120972295494149</v>
+        <v>0.34251446024928955</v>
       </c>
     </row>
     <row spans="1:7" r="16">
       <c t="n" r="A16">
-        <v>479.9979999065399</v>
+        <v>481.20700001716614</v>
       </c>
       <c t="n" r="B16">
-        <v>6.2319110066307131</v>
+        <v>403</v>
       </c>
       <c t="n" r="C16">
         <v>0</v>
       </c>
       <c t="n" r="D16">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E16">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c t="n" r="F16">
-        <v>0.56653503371161673</v>
+        <v>0.10469799047697848</v>
       </c>
       <c t="n" r="G16">
-        <v>2.1913795671040268</v>
+        <v>0.35789129566605832</v>
       </c>
     </row>
     <row spans="1:7" r="17">
       <c t="n" r="A17">
-        <v>519.9979999065399</v>
+        <v>521.220999956131</v>
       </c>
       <c t="n" r="B17">
-        <v>13.35249149398372</v>
+        <v>338</v>
       </c>
       <c t="n" r="C17">
         <v>0</v>
       </c>
       <c t="n" r="D17">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c t="n" r="F17">
-        <v>2.0639738616114385</v>
+        <v>-0.13894523787685956</v>
       </c>
       <c t="n" r="G17">
-        <v>0.35287833189541828</v>
+        <v>1.3522551289996447</v>
       </c>
     </row>
     <row spans="1:7" r="18">
       <c t="n" r="A18">
-        <v>559.9979999065399</v>
+        <v>561.2350001335144</v>
       </c>
       <c t="n" r="B18">
-        <v>19.057098349076064</v>
+        <v>289</v>
       </c>
       <c t="n" r="C18">
         <v>0</v>
       </c>
       <c t="n" r="D18">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c t="n" r="F18">
-        <v>2.6906336488950298</v>
+        <v>-0.37502489952609641</v>
       </c>
       <c t="n" r="G18">
-        <v>-0.16853125826269044</v>
+        <v>1.3967556667027474</v>
       </c>
     </row>
     <row spans="1:7" r="19">
       <c t="n" r="A19">
-        <v>599.9969999790192</v>
+        <v>601.2490000724792</v>
       </c>
       <c t="n" r="B19">
-        <v>13.443004177115851</v>
+        <v>298</v>
       </c>
       <c t="n" r="C19">
         <v>0</v>
       </c>
       <c t="n" r="D19">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F19">
-        <v>2.8980685583962682</v>
+        <v>-0.36121439827399021</v>
       </c>
       <c t="n" r="G19">
-        <v>-0.41778593517381774</v>
+        <v>1.33787475018741</v>
       </c>
     </row>
     <row spans="1:7" r="20">
       <c t="n" r="A20">
-        <v>639.9979999065399</v>
+        <v>641.2630000114441</v>
       </c>
       <c t="n" r="B20">
-        <v>8.1476934726120582</v>
+        <v>338</v>
       </c>
       <c t="n" r="C20">
         <v>0</v>
       </c>
       <c t="n" r="D20">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F20">
-        <v>0.62716062044722198</v>
+        <v>-4.5826567227576414</v>
       </c>
       <c t="n" r="G20">
-        <v>1.4708368390401685</v>
+        <v>1.8643837993413785</v>
       </c>
     </row>
     <row spans="1:7" r="21">
       <c t="n" r="A21">
-        <v>679.9979999065399</v>
+        <v>681.2769999504089</v>
       </c>
       <c t="n" r="B21">
-        <v>4.0294211788104368</v>
+        <v>379</v>
       </c>
       <c t="n" r="C21">
         <v>0</v>
       </c>
       <c t="n" r="D21">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F21">
-        <v>0.49844895905867143</v>
+        <v>-4.6085351685365401</v>
       </c>
       <c t="n" r="G21">
-        <v>1.625075160969069</v>
+        <v>1.939083991261612</v>
       </c>
     </row>
     <row spans="1:7" r="22">
       <c t="n" r="A22">
-        <v>719.9979999065399</v>
+        <v>721.2760000228882</v>
       </c>
       <c t="n" r="B22">
-        <v>1.1388019894559074</v>
+        <v>330</v>
       </c>
       <c t="n" r="C22">
         <v>0</v>
       </c>
       <c t="n" r="D22">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E22">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c t="n" r="F22">
-        <v>0.3029409353122563</v>
+        <v>-2.9464118568400752</v>
       </c>
       <c t="n" r="G22">
-        <v>1.7899812102016348</v>
+        <v>1.4065093593687608</v>
       </c>
     </row>
     <row spans="1:7" r="23">
       <c t="n" r="A23">
-        <v>759.9969999790192</v>
+        <v>761.289999961853</v>
       </c>
       <c t="n" r="B23">
-        <v>10.271096523958475</v>
+        <v>356</v>
       </c>
       <c t="n" r="C23">
         <v>0</v>
       </c>
       <c t="n" r="D23">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E23">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F23">
-        <v>3.7670957387779218</v>
+        <v>-12.456212548774667</v>
       </c>
       <c t="n" r="G23">
-        <v>-2.1870212125393547</v>
+        <v>15.846030379043878</v>
       </c>
     </row>
     <row spans="1:7" r="24">
       <c t="n" r="A24">
-        <v>799.9979999065399</v>
+        <v>801.3039999008179</v>
       </c>
       <c t="n" r="B24">
-        <v>5.6107300908496764</v>
+        <v>307</v>
       </c>
       <c t="n" r="C24">
         <v>0</v>
       </c>
       <c t="n" r="D24">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E24">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c t="n" r="F24">
-        <v>1.7628509569017332</v>
+        <v>108.20552763006091</v>
       </c>
       <c t="n" r="G24">
-        <v>-0.12551221072150787</v>
+        <v>-41.971805818191243</v>
       </c>
     </row>
     <row spans="1:7" r="25">
       <c t="n" r="A25">
-        <v>839.9979999065399</v>
+        <v>841.3499999046326</v>
       </c>
       <c t="n" r="B25">
-        <v>2.1973201275748835</v>
+        <v>329</v>
       </c>
       <c t="n" r="C25">
         <v>0</v>
       </c>
       <c t="n" r="D25">
-        <v>40.0</v>
+        <v>550</v>
       </c>
       <c t="n" r="E25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c t="n" r="F25">
-        <v>0.46599514819084353</v>
+        <v>136.78306291413497</v>
       </c>
       <c t="n" r="G25">
-        <v>1.1352072927234342</v>
+        <v>-144.61447557053083</v>
+      </c>
+    </row>
+    <row spans="1:7" r="26">
+      <c t="n" r="A26">
+        <v>881.3129999637604</v>
+      </c>
+      <c t="n" r="B26">
+        <v>289</v>
+      </c>
+      <c t="n" r="C26">
+        <v>0</v>
+      </c>
+      <c t="n" r="D26">
+        <v>550</v>
+      </c>
+      <c t="n" r="E26">
+        <v>300</v>
+      </c>
+      <c t="n" r="F26">
+        <v>686.98381228861103</v>
+      </c>
+      <c t="n" r="G26">
+        <v>-242.2828861874147</v>
+      </c>
+    </row>
+    <row spans="1:7" r="27">
+      <c t="n" r="A27">
+        <v>921.3269999027252</v>
+      </c>
+      <c t="n" r="B27">
+        <v>310</v>
+      </c>
+      <c t="n" r="C27">
+        <v>0</v>
+      </c>
+      <c t="n" r="D27">
+        <v>550</v>
+      </c>
+      <c t="n" r="E27">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F27">
+        <v>975.54786765645315</v>
+      </c>
+      <c t="n" r="G27">
+        <v>-987.50231429005316</v>
+      </c>
+    </row>
+    <row spans="1:7" r="28">
+      <c t="n" r="A28">
+        <v>961.3410000801086</v>
+      </c>
+      <c t="n" r="B28">
+        <v>270</v>
+      </c>
+      <c t="n" r="C28">
+        <v>0</v>
+      </c>
+      <c t="n" r="D28">
+        <v>550</v>
+      </c>
+      <c t="n" r="E28">
+        <v>300</v>
+      </c>
+      <c t="n" r="F28">
+        <v>9120.9208178755089</v>
+      </c>
+      <c t="n" r="G28">
+        <v>-3136.8101219899431</v>
+      </c>
+    </row>
+    <row spans="1:7" r="29">
+      <c t="n" r="A29">
+        <v>1001.3399999141693</v>
+      </c>
+      <c t="n" r="B29">
+        <v>218</v>
+      </c>
+      <c t="n" r="C29">
+        <v>0</v>
+      </c>
+      <c t="n" r="D29">
+        <v>550</v>
+      </c>
+      <c t="n" r="E29">
+        <v>300</v>
+      </c>
+      <c t="n" r="F29">
+        <v>58592.981270773016</v>
+      </c>
+      <c t="n" r="G29">
+        <v>-58106.2444840678</v>
+      </c>
+    </row>
+    <row spans="1:7" r="30">
+      <c t="n" r="A30">
+        <v>1041.3399999141693</v>
+      </c>
+      <c t="n" r="B30">
+        <v>246</v>
+      </c>
+      <c t="n" r="C30">
+        <v>0</v>
+      </c>
+      <c t="n" r="D30">
+        <v>550</v>
+      </c>
+      <c t="n" r="E30">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F30">
+        <v>180622.1689966738</v>
+      </c>
+      <c t="n" r="G30">
+        <v>-145595.9848855123</v>
+      </c>
+    </row>
+    <row spans="1:7" r="31">
+      <c t="n" r="A31">
+        <v>1081.3420000076294</v>
+      </c>
+      <c t="n" r="B31">
+        <v>204</v>
+      </c>
+      <c t="n" r="C31">
+        <v>0</v>
+      </c>
+      <c t="n" r="D31">
+        <v>550</v>
+      </c>
+      <c t="n" r="E31">
+        <v>300</v>
+      </c>
+      <c t="n" r="F31">
+        <v>-114588.92578631671</v>
+      </c>
+      <c t="n" r="G31">
+        <v>65913.868328501499</v>
+      </c>
+    </row>
+    <row spans="1:7" r="32">
+      <c t="n" r="A32">
+        <v>1121.3420000076294</v>
+      </c>
+      <c t="n" r="B32">
+        <v>162</v>
+      </c>
+      <c t="n" r="C32">
+        <v>0</v>
+      </c>
+      <c t="n" r="D32">
+        <v>550</v>
+      </c>
+      <c t="n" r="E32">
+        <v>300</v>
+      </c>
+      <c t="n" r="F32">
+        <v>-130231.90864242007</v>
+      </c>
+      <c t="n" r="G32">
+        <v>91669.682861291134</v>
+      </c>
+    </row>
+    <row spans="1:7" r="33">
+      <c t="n" r="A33">
+        <v>1161.3559999465942</v>
+      </c>
+      <c t="n" r="B33">
+        <v>117</v>
+      </c>
+      <c t="n" r="C33">
+        <v>0</v>
+      </c>
+      <c t="n" r="D33">
+        <v>550</v>
+      </c>
+      <c t="n" r="E33">
+        <v>300</v>
+      </c>
+      <c t="n" r="F33">
+        <v>-219586.82034631429</v>
+      </c>
+      <c t="n" r="G33">
+        <v>132412.69483313532</v>
+      </c>
+    </row>
+    <row spans="1:7" r="34">
+      <c t="n" r="A34">
+        <v>1201.3700001239777</v>
+      </c>
+      <c t="n" r="B34">
+        <v>155</v>
+      </c>
+      <c t="n" r="C34">
+        <v>0</v>
+      </c>
+      <c t="n" r="D34">
+        <v>550</v>
+      </c>
+      <c t="n" r="E34">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F34">
+        <v>524533.24834138737</v>
+      </c>
+      <c t="n" r="G34">
+        <v>-460603.64760440914</v>
+      </c>
+    </row>
+    <row spans="1:7" r="35">
+      <c t="n" r="A35">
+        <v>1241.3840000629425</v>
+      </c>
+      <c t="n" r="B35">
+        <v>195</v>
+      </c>
+      <c t="n" r="C35">
+        <v>0</v>
+      </c>
+      <c t="n" r="D35">
+        <v>550</v>
+      </c>
+      <c t="n" r="E35">
+        <v>1000</v>
+      </c>
+      <c t="n" r="F35">
+        <v>533563.49615443428</v>
+      </c>
+      <c t="n" r="G35">
+        <v>-106123.08078996232</v>
       </c>
     </row>
   </sheetData>
